--- a/data/zenodo/conversion/chp/CHE_convchp_coal.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_coal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61997BF-8A38-8341-80DF-8105597E0C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3FF2A-1B58-1E47-BB05-586FB80C84A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="75">
   <si>
     <t>Name:</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -676,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,16 +785,13 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -803,13 +803,13 @@
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -824,16 +824,16 @@
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9">
-        <v>0.28399999999999997</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -845,16 +845,16 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>0.95</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -866,26 +866,18 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>1.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -895,19 +887,25 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -917,26 +915,20 @@
       <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>353.88</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -947,18 +939,26 @@
         <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
+        <v>353.88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -968,16 +968,13 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
@@ -992,13 +989,16 @@
         <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
@@ -1013,13 +1013,16 @@
         <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1031,19 +1034,13 @@
         <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="G18">
-        <v>0.88</v>
-      </c>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" t="s">
-        <v>51</v>
+      <c r="H18" t="s">
+        <v>42</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1055,19 +1052,19 @@
         <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="I19" t="s">
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1078,27 +1075,22 @@
       <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
+        <v>0.6</v>
       </c>
       <c r="I20" t="s">
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1114,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -1143,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
         <v>40</v>
@@ -1172,7 +1164,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
         <v>40</v>
@@ -1201,7 +1193,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
         <v>40</v>
@@ -1230,10 +1222,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
@@ -1259,7 +1251,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1288,7 +1280,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1317,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1346,7 +1338,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1375,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1404,7 +1396,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1433,7 +1425,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1462,7 +1454,7 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1491,7 +1483,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1520,7 +1512,7 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1549,7 +1541,7 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1578,7 +1570,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1607,7 +1599,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1636,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1665,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1694,7 +1686,7 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1723,7 +1715,7 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1752,7 +1744,7 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1781,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1810,7 +1802,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1839,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1868,7 +1860,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1897,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1926,7 +1918,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1949,19 +1941,19 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s">
         <v>43</v>
@@ -1984,7 +1976,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -2013,7 +2005,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
         <v>20</v>
@@ -2042,7 +2034,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
         <v>20</v>
@@ -2071,7 +2063,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
         <v>20</v>
@@ -2100,10 +2092,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -2129,7 +2121,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2158,7 +2150,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2187,7 +2179,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2216,7 +2208,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2245,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2274,7 +2266,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2303,7 +2295,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2332,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2361,7 +2353,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2376,7 +2368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +2382,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2405,7 +2397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +2411,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2434,7 +2426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2448,7 +2440,7 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2463,7 +2455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2477,7 +2469,7 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2492,7 +2484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2498,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2521,7 +2513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2535,7 +2527,7 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2550,7 +2542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2564,7 +2556,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2579,7 +2571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2593,7 +2585,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2608,7 +2600,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2622,7 +2614,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2637,7 +2629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2651,7 +2643,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2666,7 +2658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2672,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2695,7 +2687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2709,7 +2701,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2724,7 +2716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2738,7 +2730,7 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2753,7 +2745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +2759,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2782,7 +2774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2796,37 +2788,37 @@
         <v>39</v>
       </c>
       <c r="E79">
+        <v>2018</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" t="s">
+        <v>43</v>
+      </c>
+      <c r="J79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80">
         <v>2019</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" t="s">
-        <v>55</v>
-      </c>
-      <c r="I79" t="s">
-        <v>43</v>
-      </c>
-      <c r="J79" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80">
-        <v>1990</v>
-      </c>
       <c r="G80">
         <v>0</v>
       </c>
@@ -2838,9 +2830,6 @@
       </c>
       <c r="J80" t="s">
         <v>54</v>
-      </c>
-      <c r="L80" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2857,7 +2846,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2889,7 +2878,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2921,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2953,7 +2942,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2985,7 +2974,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3017,7 +3006,7 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3049,7 +3038,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3081,7 +3070,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3113,7 +3102,7 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3145,7 +3134,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3177,7 +3166,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3209,7 +3198,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3241,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3273,7 +3262,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3305,7 +3294,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3337,7 +3326,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3369,7 +3358,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3401,7 +3390,7 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3433,7 +3422,7 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3465,7 +3454,7 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3497,7 +3486,7 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3529,7 +3518,7 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3561,7 +3550,7 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3593,7 +3582,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3625,7 +3614,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3657,7 +3646,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3689,7 +3678,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3721,7 +3710,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3753,7 +3742,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3779,13 +3768,13 @@
         <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3817,7 +3806,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3849,7 +3838,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3881,7 +3870,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3913,7 +3902,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3945,10 +3934,10 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H115" t="s">
         <v>55</v>
@@ -3977,10 +3966,10 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
         <v>55</v>
@@ -4009,7 +3998,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4041,7 +4030,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4073,7 +4062,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4105,7 +4094,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4137,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4169,7 +4158,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4201,7 +4190,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4233,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4265,7 +4254,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4297,7 +4286,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4329,7 +4318,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4361,7 +4350,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4393,7 +4382,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4425,7 +4414,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4457,7 +4446,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4489,7 +4478,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4521,7 +4510,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4553,7 +4542,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4585,7 +4574,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4617,7 +4606,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4649,7 +4638,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4681,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4713,7 +4702,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4739,16 +4728,28 @@
         <v>66</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>55</v>
       </c>
       <c r="I140" t="s">
         <v>43</v>
+      </c>
+      <c r="J140" t="s">
+        <v>54</v>
+      </c>
+      <c r="L140" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4765,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>43</v>
@@ -4785,7 +4786,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
@@ -4805,7 +4806,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>43</v>
@@ -4825,7 +4826,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>43</v>
@@ -4845,7 +4846,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>43</v>
@@ -4865,7 +4866,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -4885,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>43</v>
@@ -4905,7 +4906,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>43</v>
@@ -4925,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>43</v>
@@ -4945,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>43</v>
@@ -4965,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>43</v>
@@ -4985,7 +4986,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>43</v>
@@ -5005,7 +5006,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>43</v>
@@ -5025,7 +5026,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>43</v>
@@ -5045,7 +5046,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>43</v>
@@ -5065,7 +5066,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>43</v>
@@ -5085,7 +5086,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>43</v>
@@ -5105,7 +5106,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>43</v>
@@ -5125,7 +5126,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>43</v>
@@ -5145,7 +5146,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>43</v>
@@ -5165,7 +5166,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>43</v>
@@ -5185,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>43</v>
@@ -5205,7 +5206,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>43</v>
@@ -5225,7 +5226,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>43</v>
@@ -5245,7 +5246,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>43</v>
@@ -5265,7 +5266,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>43</v>
@@ -5285,7 +5286,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>43</v>
@@ -5305,22 +5306,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>67</v>
-      </c>
-      <c r="H168" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>43</v>
-      </c>
-      <c r="J168" t="s">
-        <v>58</v>
-      </c>
-      <c r="L168" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5337,10 +5326,22 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>67</v>
+      </c>
+      <c r="H169" t="s">
+        <v>57</v>
       </c>
       <c r="I169" t="s">
         <v>43</v>
+      </c>
+      <c r="J169" t="s">
+        <v>58</v>
+      </c>
+      <c r="L169" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5351,13 +5352,13 @@
         <v>66</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>43</v>
@@ -5377,7 +5378,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>43</v>
@@ -5397,7 +5398,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>43</v>
@@ -5417,7 +5418,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>43</v>
@@ -5437,7 +5438,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>43</v>
@@ -5457,7 +5458,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>43</v>
@@ -5477,7 +5478,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>43</v>
@@ -5497,7 +5498,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>43</v>
@@ -5517,7 +5518,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>43</v>
@@ -5537,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>43</v>
@@ -5557,7 +5558,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>43</v>
@@ -5577,7 +5578,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>43</v>
@@ -5597,7 +5598,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>43</v>
@@ -5617,7 +5618,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>43</v>
@@ -5637,7 +5638,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>43</v>
@@ -5657,7 +5658,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>43</v>
@@ -5677,7 +5678,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -5697,7 +5698,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>43</v>
@@ -5717,7 +5718,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>43</v>
@@ -5737,7 +5738,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>43</v>
@@ -5757,7 +5758,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -5777,7 +5778,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>43</v>
@@ -5797,7 +5798,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>43</v>
@@ -5817,7 +5818,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>43</v>
@@ -5837,7 +5838,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>43</v>
@@ -5857,7 +5858,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I195" t="s">
         <v>43</v>
@@ -5877,7 +5878,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>43</v>
@@ -5897,7 +5898,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>43</v>
@@ -5917,22 +5918,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
-      </c>
-      <c r="G198">
-        <v>2920</v>
-      </c>
-      <c r="H198" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>43</v>
-      </c>
-      <c r="J198" t="s">
-        <v>58</v>
-      </c>
-      <c r="L198" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5949,10 +5938,22 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G199">
+        <v>2920</v>
+      </c>
+      <c r="H199" t="s">
+        <v>57</v>
       </c>
       <c r="I199" t="s">
         <v>43</v>
+      </c>
+      <c r="J199" t="s">
+        <v>58</v>
+      </c>
+      <c r="L199" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -5963,13 +5964,13 @@
         <v>66</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>43</v>
@@ -5989,7 +5990,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>43</v>
@@ -6009,7 +6010,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>43</v>
@@ -6029,7 +6030,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>43</v>
@@ -6049,7 +6050,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>43</v>
@@ -6069,7 +6070,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>43</v>
@@ -6089,7 +6090,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>43</v>
@@ -6109,7 +6110,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>43</v>
@@ -6129,7 +6130,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
@@ -6149,7 +6150,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>43</v>
@@ -6169,7 +6170,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>43</v>
@@ -6189,7 +6190,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>43</v>
@@ -6209,7 +6210,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>43</v>
@@ -6229,7 +6230,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>43</v>
@@ -6249,7 +6250,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>43</v>
@@ -6269,7 +6270,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>43</v>
@@ -6289,7 +6290,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>43</v>
@@ -6309,7 +6310,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>43</v>
@@ -6329,7 +6330,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>43</v>
@@ -6349,7 +6350,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>43</v>
@@ -6369,7 +6370,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>43</v>
@@ -6389,7 +6390,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>43</v>
@@ -6409,7 +6410,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>43</v>
@@ -6429,7 +6430,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>43</v>
@@ -6449,7 +6450,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>43</v>
@@ -6469,7 +6470,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
@@ -6489,7 +6490,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>43</v>
@@ -6509,7 +6510,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>43</v>
@@ -6529,22 +6530,10 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>5.5</v>
-      </c>
-      <c r="H228" t="s">
-        <v>60</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>43</v>
-      </c>
-      <c r="J228" t="s">
-        <v>58</v>
-      </c>
-      <c r="L228" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6561,10 +6550,22 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>5.5</v>
+      </c>
+      <c r="H229" t="s">
+        <v>60</v>
       </c>
       <c r="I229" t="s">
         <v>43</v>
+      </c>
+      <c r="J229" t="s">
+        <v>58</v>
+      </c>
+      <c r="L229" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6575,28 +6576,16 @@
         <v>66</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>43</v>
-      </c>
-      <c r="J230" t="s">
-        <v>54</v>
-      </c>
-      <c r="L230" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6613,7 +6602,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6645,7 +6634,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6677,7 +6666,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6709,7 +6698,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6741,10 +6730,10 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H235" t="s">
         <v>55</v>
@@ -6773,10 +6762,10 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H236" t="s">
         <v>55</v>
@@ -6805,7 +6794,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6837,7 +6826,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6869,7 +6858,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6901,7 +6890,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6933,7 +6922,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6965,7 +6954,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6997,7 +6986,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7029,7 +7018,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7061,7 +7050,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7093,7 +7082,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7125,7 +7114,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7157,7 +7146,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7189,7 +7178,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7221,7 +7210,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7253,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7285,7 +7274,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7317,7 +7306,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7349,7 +7338,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7381,7 +7370,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7413,7 +7402,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7445,7 +7434,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7477,7 +7466,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7509,7 +7498,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7535,22 +7524,28 @@
         <v>66</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>55</v>
       </c>
       <c r="I260" t="s">
         <v>43</v>
       </c>
       <c r="J260" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="L260" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7567,13 +7562,16 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I261" t="s">
         <v>43</v>
+      </c>
+      <c r="J261" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7590,7 +7588,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7613,7 +7611,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7636,7 +7634,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7659,7 +7657,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7682,7 +7680,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7705,7 +7703,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7728,7 +7726,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7751,7 +7749,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7774,7 +7772,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7797,7 +7795,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7820,7 +7818,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7843,7 +7841,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7866,7 +7864,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7889,7 +7887,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7912,7 +7910,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7935,7 +7933,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7958,7 +7956,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7981,7 +7979,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -8004,7 +8002,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -8027,7 +8025,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -8050,7 +8048,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -8073,7 +8071,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -8096,7 +8094,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -8119,7 +8117,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -8142,7 +8140,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -8165,7 +8163,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.85</v>
@@ -8188,7 +8186,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.85</v>
@@ -8211,7 +8209,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>0.85</v>
@@ -8228,22 +8226,19 @@
         <v>66</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I290" t="s">
         <v>43</v>
-      </c>
-      <c r="J290" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -8260,13 +8255,16 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>43</v>
+      </c>
+      <c r="J291" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -8283,7 +8281,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0.5</v>
@@ -8306,7 +8304,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0.5</v>
@@ -8329,7 +8327,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0.5</v>
@@ -8352,7 +8350,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0.5</v>
@@ -8375,7 +8373,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0.5</v>
@@ -8398,7 +8396,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0.5</v>
@@ -8421,7 +8419,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0.5</v>
@@ -8444,7 +8442,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0.5</v>
@@ -8467,7 +8465,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0.5</v>
@@ -8490,7 +8488,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0.5</v>
@@ -8513,7 +8511,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0.5</v>
@@ -8536,7 +8534,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0.5</v>
@@ -8559,7 +8557,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0.5</v>
@@ -8582,7 +8580,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0.5</v>
@@ -8605,7 +8603,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0.5</v>
@@ -8628,7 +8626,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0.5</v>
@@ -8651,7 +8649,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0.5</v>
@@ -8674,7 +8672,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0.5</v>
@@ -8697,7 +8695,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0.5</v>
@@ -8720,7 +8718,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0.5</v>
@@ -8743,7 +8741,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0.5</v>
@@ -8766,7 +8764,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0.5</v>
@@ -8789,7 +8787,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0.5</v>
@@ -8812,7 +8810,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0.5</v>
@@ -8835,7 +8833,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0.5</v>
@@ -8858,7 +8856,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.5</v>
@@ -8881,7 +8879,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.5</v>
@@ -8904,7 +8902,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.5</v>
@@ -8913,11 +8911,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>66</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.5</v>
+      </c>
+      <c r="I320" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/chp/CHE_convchp_coal.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_coal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3FF2A-1B58-1E47-BB05-586FB80C84A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E8488-DAEB-1E4D-B86C-62B4A857B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="500" windowWidth="20900" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -399,9 +399,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,26 +434,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,26 +469,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,8 +648,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="5" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G261:G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7565,7 +7531,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I261" t="s">
         <v>43</v>
@@ -8258,7 +8224,7 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I291" t="s">
         <v>43</v>
